--- a/thoh/毕业论文/数据计算草稿.xlsx
+++ b/thoh/毕业论文/数据计算草稿.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thohtestarossa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thohtestarossa/my_github/Mirage-docs/thoh/毕业论文/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="4540" windowWidth="16220" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK2" localSheetId="0">工作表1!$F$94</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +83,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,8 +114,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -130,11 +188,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -151,6 +226,9 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -166,6 +244,9 @@
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -175,6 +256,5796 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>原始数据集大小</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>聚合时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）柱形图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>数据集：134217728</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$54:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0008518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.84044E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1488E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>数据集：262144</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$55:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0008599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.61902E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4036E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-831840848"/>
+        <c:axId val="-831839072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-831840848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-831839072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-831839072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-831840848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>原始数据集大小</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>聚合时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>）柱形图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>数据集：134217728</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$57:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0008288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000103967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.86038E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>数据集：262144</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$58:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0008339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000117804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7815E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-837266704"/>
+        <c:axId val="-834865952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-837266704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-834865952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-834865952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-837266704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>聚合路径优化算法有无</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>聚合时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）柱形图（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>13, 101, 19</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>使用聚合路径优化</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>total</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$74:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000859935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.619E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.404E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000892529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>不使用聚合路径优化</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>total</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$75:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000833913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00016831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7815E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001020038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-836506480"/>
+        <c:axId val="-835857184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-836506480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-835857184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-835857184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.00105"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-836506480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>聚合路径优化算法有无</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>聚合时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>）柱形图（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3, 101, 11</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>使用聚合路径优化</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>total</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$74:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000277024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.584E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.732E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00029034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>未使用聚合路径优化</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>total</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$75:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000260116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6094E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1583E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000327793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-859086704"/>
+        <c:axId val="-837933824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-859086704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-837933824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-837933824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.00033"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-859086704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Kernel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>底层</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>生成时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）柱形图（数据集：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>134217728</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>16</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$91:$E$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.810336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.798154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.701672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.718508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.62508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-831342000"/>
+        <c:axId val="-834363152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-831342000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-834363152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-834363152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-831342000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据集大小</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>底层</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>生成时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）线性图（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>xy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>坐标轴均幂处理）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$107:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>262144.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.097152E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6777216E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34217728E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$107:$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0260788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06733256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3991288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.62508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-834169392"/>
+        <c:axId val="-779038192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-834169392"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="262144.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-779038192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-779038192"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-834169392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178326</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>168193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163849</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>55538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250710</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>446804</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>48957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250710</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236233</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>187143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573144</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>108970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>769238</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>200305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>237549</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>155032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223072</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>42377</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152005</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>89229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137528</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>180564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,18 +6311,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A82" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -926,7 +6797,7 @@
         <v>7.3039999999999999E-6</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D33" si="5">SUM(A26:C26)</f>
+        <f t="shared" ref="D26:D31" si="5">SUM(A26:C26)</f>
         <v>8.7964699999999989E-4</v>
       </c>
       <c r="F26">
@@ -1511,9 +7382,257 @@
         <v>3.1779239999999998E-4</v>
       </c>
     </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>58619328</v>
+      </c>
+      <c r="B41">
+        <v>2178240</v>
+      </c>
+      <c r="C41">
+        <f>A41-B41</f>
+        <v>56441088</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2.7389360000000001E-2</v>
+      </c>
+      <c r="B42">
+        <v>8.1015999999999998E-4</v>
+      </c>
+      <c r="C42">
+        <f>A42-B42</f>
+        <v>2.6579200000000001E-2</v>
+      </c>
+      <c r="D42">
+        <f>C42/C41</f>
+        <v>4.709193415973838E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3479769</v>
+      </c>
+      <c r="B44">
+        <v>27841394</v>
+      </c>
+      <c r="C44">
+        <v>222741273</v>
+      </c>
+      <c r="D44">
+        <v>1781907696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.35200959999999998</v>
+      </c>
+      <c r="B45">
+        <v>2.741692</v>
+      </c>
+      <c r="C45">
+        <v>21.113119999999999</v>
+      </c>
+      <c r="D45">
+        <v>166.66919999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>8.518E-4</v>
+      </c>
+      <c r="B54">
+        <f>2.84044/100000</f>
+        <v>2.8404400000000002E-5</v>
+      </c>
+      <c r="C54">
+        <f>6.1488/1000000</f>
+        <v>6.1487999999999995E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8.5990000000000003E-4</v>
+      </c>
+      <c r="B55">
+        <f>2.61902/100000</f>
+        <v>2.6190199999999999E-5</v>
+      </c>
+      <c r="C55">
+        <f>6.4036/1000000</f>
+        <v>6.4036E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>8.2879999999999998E-4</v>
+      </c>
+      <c r="B57">
+        <v>1.03967E-4</v>
+      </c>
+      <c r="C57">
+        <f>1.86038/100000</f>
+        <v>1.86038E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8.3390000000000005E-4</v>
+      </c>
+      <c r="B58">
+        <v>1.17804E-4</v>
+      </c>
+      <c r="C58">
+        <f>0.000017815</f>
+        <v>1.7815000000000001E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>8.5993500000000004E-4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2.6190000000000002E-5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>6.404E-6</v>
+      </c>
+      <c r="D74">
+        <f>SUM(A74:C74)</f>
+        <v>8.9252900000000009E-4</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2.7702400000000001E-4</v>
+      </c>
+      <c r="H74" s="4">
+        <v>7.5839999999999997E-6</v>
+      </c>
+      <c r="I74" s="4">
+        <v>5.7320000000000003E-6</v>
+      </c>
+      <c r="J74">
+        <f>SUM(G74:I74)</f>
+        <v>2.9033999999999999E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>8.3391300000000004E-4</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1.6830999999999999E-4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1.7815000000000001E-5</v>
+      </c>
+      <c r="D75">
+        <f>SUM(A75:C75)</f>
+        <v>1.020038E-3</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2.6011600000000001E-4</v>
+      </c>
+      <c r="H75" s="4">
+        <v>4.6094000000000003E-5</v>
+      </c>
+      <c r="I75" s="4">
+        <v>2.1583E-5</v>
+      </c>
+      <c r="J75">
+        <f>SUM(G75:I75)</f>
+        <v>3.27793E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>2.8103359999999999</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1.798154</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1.7016720000000001</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1.7185079999999999</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1.6250800000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>262144</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2.6078799999999999E-2</v>
+      </c>
+      <c r="C107">
+        <f>LOG(A107, 2)</f>
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <f>LOG(B107, 2)</f>
+        <v>-5.2609787034066278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>2097152</v>
+      </c>
+      <c r="B108" s="5">
+        <v>6.733256E-2</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108:C110" si="20">LOG(A108, 2)</f>
+        <v>21</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ref="D108:D110" si="21">LOG(B108, 2)</f>
+        <v>-3.8925518722934078</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>16777216</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.39912880000000001</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="21"/>
+        <v>-1.3250737115077584</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>134217728</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1.6250800000000001</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="21"/>
+        <v>0.70051074137947067</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/thoh/毕业论文/数据计算草稿.xlsx
+++ b/thoh/毕业论文/数据计算草稿.xlsx
@@ -156,8 +156,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,7 +215,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -229,6 +235,9 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -247,6 +256,9 @@
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -431,11 +443,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-831840848"/>
-        <c:axId val="-831839072"/>
+        <c:axId val="-835886080"/>
+        <c:axId val="-835884448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-831840848"/>
+        <c:axId val="-835886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +490,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-831839072"/>
+        <c:crossAx val="-835884448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -486,7 +498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-831839072"/>
+        <c:axId val="-835884448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +551,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-831840848"/>
+        <c:crossAx val="-835886080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,11 +818,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-837266704"/>
-        <c:axId val="-834865952"/>
+        <c:axId val="-832745184"/>
+        <c:axId val="-835917936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-837266704"/>
+        <c:axId val="-832745184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-834865952"/>
+        <c:crossAx val="-835917936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-834865952"/>
+        <c:axId val="-835917936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +922,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-837266704"/>
+        <c:crossAx val="-832745184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1212,11 +1224,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-836506480"/>
-        <c:axId val="-835857184"/>
+        <c:axId val="-832837216"/>
+        <c:axId val="-863435504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-836506480"/>
+        <c:axId val="-832837216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1271,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-835857184"/>
+        <c:crossAx val="-863435504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1267,7 +1279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-835857184"/>
+        <c:axId val="-863435504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00105"/>
@@ -1319,7 +1331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-836506480"/>
+        <c:crossAx val="-832837216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,11 +1650,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-859086704"/>
-        <c:axId val="-837933824"/>
+        <c:axId val="-836004208"/>
+        <c:axId val="-836026560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-859086704"/>
+        <c:axId val="-836004208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-837933824"/>
+        <c:crossAx val="-836026560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1693,7 +1705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-837933824"/>
+        <c:axId val="-836026560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00033"/>
@@ -1745,7 +1757,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-859086704"/>
+        <c:crossAx val="-836004208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,11 +2019,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-831342000"/>
-        <c:axId val="-834363152"/>
+        <c:axId val="-835590400"/>
+        <c:axId val="-835068768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-831342000"/>
+        <c:axId val="-835590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +2066,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-834363152"/>
+        <c:crossAx val="-835068768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2062,7 +2074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-834363152"/>
+        <c:axId val="-835068768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2125,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-831342000"/>
+        <c:crossAx val="-835590400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,11 +2431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-834169392"/>
-        <c:axId val="-779038192"/>
+        <c:axId val="-836061520"/>
+        <c:axId val="-836068192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-834169392"/>
+        <c:axId val="-836061520"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2445,6 +2457,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2481,12 +2494,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779038192"/>
+        <c:crossAx val="-836068192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-779038192"/>
+        <c:axId val="-836068192"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2543,9 +2556,681 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-834169392"/>
+        <c:crossAx val="-836061520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Kernel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>底层</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>生成时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）（数据集：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>16777216</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$A$126:$A$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$126:$G$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.503698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.260434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.76185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.971528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.967586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-862605232"/>
+        <c:axId val="-833095072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-862605232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-833095072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-833095072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-862605232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Kernel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>从</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>到</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>聚合时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）柱形图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(工作表1!$A$146,工作表1!$A$153,工作表1!$A$160,工作表1!$A$167)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(工作表1!$D$152,工作表1!$D$159,工作表1!$D$166,工作表1!$D$173)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0444904384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.036521843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.024351568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.015527524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-831293296"/>
+        <c:axId val="-836886048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-831293296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-836886048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-836886048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-831293296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2832,6 +3517,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5844,6 +6609,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6045,6 +7816,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148716</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134239</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>48957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>713377</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>54725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4319</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>146058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6311,10 +8142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A82" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A135" zoomScale="119" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7626,6 +9457,518 @@
       <c r="D110">
         <f t="shared" si="21"/>
         <v>0.70051074137947067</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>7.5043899999999999</v>
+      </c>
+      <c r="C126">
+        <v>7.50448</v>
+      </c>
+      <c r="D126">
+        <v>7.5036300000000002</v>
+      </c>
+      <c r="E126">
+        <v>7.50387</v>
+      </c>
+      <c r="F126">
+        <v>7.5021199999999997</v>
+      </c>
+      <c r="G126">
+        <f>AVERAGE(B126:F126)</f>
+        <v>7.503698</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>16</v>
+      </c>
+      <c r="B127">
+        <v>6.2568999999999999</v>
+      </c>
+      <c r="C127">
+        <v>6.2636099999999999</v>
+      </c>
+      <c r="D127">
+        <v>6.2585199999999999</v>
+      </c>
+      <c r="E127">
+        <v>6.2589600000000001</v>
+      </c>
+      <c r="F127">
+        <v>6.2641799999999996</v>
+      </c>
+      <c r="G127">
+        <f t="shared" ref="G127:G130" si="22">AVERAGE(B127:F127)</f>
+        <v>6.2604340000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>32</v>
+      </c>
+      <c r="B128">
+        <v>3.7608700000000002</v>
+      </c>
+      <c r="C128">
+        <v>3.76335</v>
+      </c>
+      <c r="D128">
+        <v>3.7634500000000002</v>
+      </c>
+      <c r="E128">
+        <v>3.76139</v>
+      </c>
+      <c r="F128">
+        <v>3.7601900000000001</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="22"/>
+        <v>3.7618500000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>48</v>
+      </c>
+      <c r="B129">
+        <v>2.97166</v>
+      </c>
+      <c r="C129">
+        <v>2.97159</v>
+      </c>
+      <c r="D129">
+        <v>2.9715799999999999</v>
+      </c>
+      <c r="E129">
+        <v>2.9714</v>
+      </c>
+      <c r="F129">
+        <v>2.9714100000000001</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="22"/>
+        <v>2.9715280000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>64</v>
+      </c>
+      <c r="B130">
+        <v>2.9683899999999999</v>
+      </c>
+      <c r="C130">
+        <v>2.96692</v>
+      </c>
+      <c r="D130">
+        <v>2.9679000000000002</v>
+      </c>
+      <c r="E130">
+        <v>2.9679199999999999</v>
+      </c>
+      <c r="F130">
+        <v>2.9668000000000001</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="22"/>
+        <v>2.9675859999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>4.1161499999999997E-2</v>
+      </c>
+      <c r="B147">
+        <v>5.5081399999999995E-4</v>
+      </c>
+      <c r="C147">
+        <v>2.2977800000000001E-4</v>
+      </c>
+      <c r="D147">
+        <f>SUM(A147:C147)</f>
+        <v>4.1942091999999993E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>4.3922200000000002E-2</v>
+      </c>
+      <c r="B148">
+        <v>5.5822200000000004E-4</v>
+      </c>
+      <c r="C148">
+        <v>2.2977800000000001E-4</v>
+      </c>
+      <c r="D148">
+        <f t="shared" ref="D148:D151" si="23">SUM(A148:C148)</f>
+        <v>4.4710199999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>4.6547699999999997E-2</v>
+      </c>
+      <c r="B149">
+        <v>5.8844500000000005E-4</v>
+      </c>
+      <c r="C149">
+        <v>2.4459200000000002E-4</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="23"/>
+        <v>4.7380736999999999E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>4.4202400000000003E-2</v>
+      </c>
+      <c r="B150">
+        <v>5.7911099999999999E-4</v>
+      </c>
+      <c r="C150">
+        <v>2.2962899999999999E-4</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="23"/>
+        <v>4.5011140000000005E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>4.25858E-2</v>
+      </c>
+      <c r="B151">
+        <v>5.5259299999999999E-4</v>
+      </c>
+      <c r="C151">
+        <v>2.6962999999999998E-4</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="23"/>
+        <v>4.3408022999999997E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f>AVERAGE(A147:A151)</f>
+        <v>4.3683920000000001E-2</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ref="B152:D152" si="24">AVERAGE(B147:B151)</f>
+        <v>5.6583700000000002E-4</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="24"/>
+        <v>2.4068140000000002E-4</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="24"/>
+        <v>4.4490438399999999E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>3.8016599999999998E-2</v>
+      </c>
+      <c r="B154">
+        <v>3.1348200000000002E-4</v>
+      </c>
+      <c r="C154">
+        <v>2.4488899999999998E-4</v>
+      </c>
+      <c r="D154">
+        <f t="shared" ref="D154:D158" si="25">SUM(A154:C154)</f>
+        <v>3.8574970999999993E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>3.2294999999999997E-2</v>
+      </c>
+      <c r="B155">
+        <v>3.1363000000000002E-4</v>
+      </c>
+      <c r="C155">
+        <v>2.4488899999999998E-4</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="25"/>
+        <v>3.2853518999999998E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>3.4810500000000001E-2</v>
+      </c>
+      <c r="B156">
+        <v>3.1363000000000002E-4</v>
+      </c>
+      <c r="C156">
+        <v>2.4503699999999998E-4</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="25"/>
+        <v>3.5369167E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>3.5061299999999997E-2</v>
+      </c>
+      <c r="B157">
+        <v>3.1511100000000003E-4</v>
+      </c>
+      <c r="C157">
+        <v>2.4474099999999998E-4</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="25"/>
+        <v>3.5621151999999996E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>3.9634999999999997E-2</v>
+      </c>
+      <c r="B158">
+        <v>3.1066600000000002E-4</v>
+      </c>
+      <c r="C158">
+        <v>2.4474000000000002E-4</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="25"/>
+        <v>4.0190405999999998E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" ref="A159" si="26">AVERAGE(A154:A158)</f>
+        <v>3.5963679999999998E-2</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ref="B159" si="27">AVERAGE(B154:B158)</f>
+        <v>3.1330380000000002E-4</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ref="C159:D165" si="28">AVERAGE(C154:C158)</f>
+        <v>2.4485920000000001E-4</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="28"/>
+        <v>3.6521842999999998E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2.30858E-2</v>
+      </c>
+      <c r="B161">
+        <v>5.6666599999999996E-4</v>
+      </c>
+      <c r="C161">
+        <v>4.3896300000000001E-4</v>
+      </c>
+      <c r="D161">
+        <f t="shared" ref="D161:D165" si="29">SUM(A161:C161)</f>
+        <v>2.4091429000000001E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2.43301E-2</v>
+      </c>
+      <c r="B162">
+        <v>5.6903699999999999E-4</v>
+      </c>
+      <c r="C162">
+        <v>4.3896300000000001E-4</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="29"/>
+        <v>2.5338100000000002E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2.4118799999999999E-2</v>
+      </c>
+      <c r="B163">
+        <v>5.6444500000000001E-4</v>
+      </c>
+      <c r="C163">
+        <v>4.39407E-4</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="29"/>
+        <v>2.5122651999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>2.33095E-2</v>
+      </c>
+      <c r="B164">
+        <v>5.6933299999999999E-4</v>
+      </c>
+      <c r="C164">
+        <v>4.39111E-4</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="29"/>
+        <v>2.4317944000000001E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>2.2324900000000002E-2</v>
+      </c>
+      <c r="B165">
+        <v>3.1792600000000001E-4</v>
+      </c>
+      <c r="C165">
+        <v>2.4488899999999998E-4</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="29"/>
+        <v>2.2887715000000003E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" ref="A166" si="30">AVERAGE(A161:A165)</f>
+        <v>2.3433820000000001E-2</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ref="B166" si="31">AVERAGE(B161:B165)</f>
+        <v>5.1748140000000011E-4</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ref="C166:D166" si="32">AVERAGE(C161:C165)</f>
+        <v>4.0026660000000002E-4</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="32"/>
+        <v>2.4351568000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1.45308E-2</v>
+      </c>
+      <c r="B168">
+        <v>5.5911100000000005E-4</v>
+      </c>
+      <c r="C168">
+        <v>4.4118500000000003E-4</v>
+      </c>
+      <c r="D168">
+        <f t="shared" ref="D168:D172" si="33">SUM(A168:C168)</f>
+        <v>1.5531095999999999E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1.39659E-2</v>
+      </c>
+      <c r="B169">
+        <v>5.5688899999999997E-4</v>
+      </c>
+      <c r="C169">
+        <v>4.4133399999999999E-4</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="33"/>
+        <v>1.4964122999999999E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1.3814699999999999E-2</v>
+      </c>
+      <c r="B170">
+        <v>5.5733400000000004E-4</v>
+      </c>
+      <c r="C170">
+        <v>4.4133300000000002E-4</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="33"/>
+        <v>1.4813366999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1.54717E-2</v>
+      </c>
+      <c r="B171">
+        <v>5.5940700000000005E-4</v>
+      </c>
+      <c r="C171">
+        <v>4.4133399999999999E-4</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="33"/>
+        <v>1.6472441000000001E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1.486E-2</v>
+      </c>
+      <c r="B172">
+        <v>5.5555600000000002E-4</v>
+      </c>
+      <c r="C172">
+        <v>4.4103700000000003E-4</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="33"/>
+        <v>1.5856593000000002E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" ref="A173" si="34">AVERAGE(A168:A172)</f>
+        <v>1.4528620000000001E-2</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ref="B173" si="35">AVERAGE(B168:B172)</f>
+        <v>5.5765939999999998E-4</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173" si="36">AVERAGE(C168:C172)</f>
+        <v>4.4124460000000002E-4</v>
+      </c>
+      <c r="D173">
+        <f t="shared" ref="D173" si="37">AVERAGE(D168:D172)</f>
+        <v>1.5527524000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/thoh/毕业论文/数据计算草稿.xlsx
+++ b/thoh/毕业论文/数据计算草稿.xlsx
@@ -326,7 +326,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -443,11 +442,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-835886080"/>
-        <c:axId val="-835884448"/>
+        <c:axId val="-832725472"/>
+        <c:axId val="-833128816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-835886080"/>
+        <c:axId val="-832725472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-835884448"/>
+        <c:crossAx val="-833128816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -498,7 +497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-835884448"/>
+        <c:axId val="-833128816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +550,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-835886080"/>
+        <c:crossAx val="-832725472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,7 +564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -701,7 +699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -818,11 +815,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-832745184"/>
-        <c:axId val="-835917936"/>
+        <c:axId val="-776482624"/>
+        <c:axId val="-776480848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-832745184"/>
+        <c:axId val="-776482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-835917936"/>
+        <c:crossAx val="-776480848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -872,7 +869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-835917936"/>
+        <c:axId val="-776480848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +919,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-832745184"/>
+        <c:crossAx val="-776482624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,7 +933,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1067,7 +1063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1224,11 +1219,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-832837216"/>
-        <c:axId val="-863435504"/>
+        <c:axId val="-776525360"/>
+        <c:axId val="-776554688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-832837216"/>
+        <c:axId val="-776525360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863435504"/>
+        <c:crossAx val="-776554688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1279,7 +1274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-863435504"/>
+        <c:axId val="-776554688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00105"/>
@@ -1331,7 +1326,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-832837216"/>
+        <c:crossAx val="-776525360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,7 +1340,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1493,7 +1487,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1650,11 +1643,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-836004208"/>
-        <c:axId val="-836026560"/>
+        <c:axId val="-776560880"/>
+        <c:axId val="-776583600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-836004208"/>
+        <c:axId val="-776560880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1690,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-836026560"/>
+        <c:crossAx val="-776583600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1705,7 +1698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-836026560"/>
+        <c:axId val="-776583600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00033"/>
@@ -1757,7 +1750,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-836004208"/>
+        <c:crossAx val="-776560880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1771,7 +1764,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2019,11 +2011,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-835590400"/>
-        <c:axId val="-835068768"/>
+        <c:axId val="-777632736"/>
+        <c:axId val="-777509632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-835590400"/>
+        <c:axId val="-777632736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-835068768"/>
+        <c:crossAx val="-777509632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-835068768"/>
+        <c:axId val="-777509632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2117,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-835590400"/>
+        <c:crossAx val="-777632736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2431,11 +2423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-836061520"/>
-        <c:axId val="-836068192"/>
+        <c:axId val="-777084272"/>
+        <c:axId val="-831110464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-836061520"/>
+        <c:axId val="-777084272"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2494,12 +2486,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-836068192"/>
+        <c:crossAx val="-831110464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-836068192"/>
+        <c:axId val="-831110464"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2556,7 +2548,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-836061520"/>
+        <c:crossAx val="-777084272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2790,11 +2782,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-862605232"/>
-        <c:axId val="-833095072"/>
+        <c:axId val="-776592656"/>
+        <c:axId val="-776622912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-862605232"/>
+        <c:axId val="-776592656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +2829,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-833095072"/>
+        <c:crossAx val="-776622912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2845,7 +2837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-833095072"/>
+        <c:axId val="-776622912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +2887,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862605232"/>
+        <c:crossAx val="-776592656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3115,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-831293296"/>
-        <c:axId val="-836886048"/>
+        <c:axId val="-777118576"/>
+        <c:axId val="-777205664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-831293296"/>
+        <c:axId val="-777118576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3162,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-836886048"/>
+        <c:crossAx val="-777205664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3178,7 +3170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-836886048"/>
+        <c:axId val="-777205664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3220,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-831293296"/>
+        <c:crossAx val="-777118576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3240,6 +3232,410 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CPU-GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>读取文件</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="0.000000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$K$127:$K$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.479769E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7841394E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.22741273E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.781907696E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$O$127:$O$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0813523333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.387549333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.85776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.50419833333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-832186736"/>
+        <c:axId val="-835014848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-832186736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-835014848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-835014848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-832186736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3597,6 +3993,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7615,6 +8051,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7876,6 +8828,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115261</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>15794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>98185</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>122944</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8142,10 +9124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A135" zoomScale="119" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A101" zoomScale="119" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9394,8 +10376,8 @@
         <v>1.6250800000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>262144</v>
       </c>
@@ -9411,7 +10393,7 @@
         <v>-5.2609787034066278</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2097152</v>
       </c>
@@ -9427,7 +10409,7 @@
         <v>-3.8925518722934078</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>16777216</v>
       </c>
@@ -9442,8 +10424,12 @@
         <f t="shared" si="21"/>
         <v>-1.3250737115077584</v>
       </c>
+      <c r="G109">
+        <f>1/58619328/1000000</f>
+        <v>1.7059219784982866E-14</v>
+      </c>
     </row>
-    <row r="110" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>134217728</v>
       </c>
@@ -9459,7 +10445,7 @@
         <v>0.70051074137947067</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12</v>
       </c>
@@ -9483,7 +10469,7 @@
         <v>7.503698</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>16</v>
       </c>
@@ -9506,8 +10492,24 @@
         <f t="shared" ref="G127:G130" si="22">AVERAGE(B127:F127)</f>
         <v>6.2604340000000001</v>
       </c>
+      <c r="K127">
+        <v>3479769</v>
+      </c>
+      <c r="L127">
+        <v>8.2798999999999998E-2</v>
+      </c>
+      <c r="M127">
+        <v>8.1167000000000003E-2</v>
+      </c>
+      <c r="N127">
+        <v>8.0090999999999996E-2</v>
+      </c>
+      <c r="O127">
+        <f t="shared" ref="O126:O129" si="23">AVERAGE(L127:N127)</f>
+        <v>8.1352333333333332E-2</v>
+      </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>32</v>
       </c>
@@ -9530,8 +10532,24 @@
         <f t="shared" si="22"/>
         <v>3.7618500000000004</v>
       </c>
+      <c r="K128">
+        <v>27841394</v>
+      </c>
+      <c r="L128">
+        <v>0.39396599999999998</v>
+      </c>
+      <c r="M128">
+        <v>0.36890499999999998</v>
+      </c>
+      <c r="N128">
+        <v>0.39977699999999999</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="23"/>
+        <v>0.3875493333333333</v>
+      </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>48</v>
       </c>
@@ -9554,8 +10572,24 @@
         <f t="shared" si="22"/>
         <v>2.9715280000000002</v>
       </c>
+      <c r="K129">
+        <v>222741273</v>
+      </c>
+      <c r="L129">
+        <v>2.8892699999999998</v>
+      </c>
+      <c r="M129">
+        <v>2.7970899999999999</v>
+      </c>
+      <c r="N129">
+        <v>2.8869199999999999</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="23"/>
+        <v>2.8577600000000003</v>
+      </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>64</v>
       </c>
@@ -9577,6 +10611,22 @@
       <c r="G130">
         <f t="shared" si="22"/>
         <v>2.9675859999999998</v>
+      </c>
+      <c r="K130">
+        <v>1781907696</v>
+      </c>
+      <c r="L130">
+        <v>22.743264</v>
+      </c>
+      <c r="M130">
+        <v>22.236889000000001</v>
+      </c>
+      <c r="N130">
+        <v>22.532442</v>
+      </c>
+      <c r="O130">
+        <f>AVERAGE(L130:N130)</f>
+        <v>22.504198333333335</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9610,7 +10660,7 @@
         <v>2.2977800000000001E-4</v>
       </c>
       <c r="D148">
-        <f t="shared" ref="D148:D151" si="23">SUM(A148:C148)</f>
+        <f t="shared" ref="D148:D151" si="24">SUM(A148:C148)</f>
         <v>4.4710199999999999E-2</v>
       </c>
     </row>
@@ -9625,7 +10675,7 @@
         <v>2.4459200000000002E-4</v>
       </c>
       <c r="D149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7380736999999999E-2</v>
       </c>
     </row>
@@ -9640,7 +10690,7 @@
         <v>2.2962899999999999E-4</v>
       </c>
       <c r="D150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.5011140000000005E-2</v>
       </c>
     </row>
@@ -9655,7 +10705,7 @@
         <v>2.6962999999999998E-4</v>
       </c>
       <c r="D151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.3408022999999997E-2</v>
       </c>
     </row>
@@ -9665,15 +10715,15 @@
         <v>4.3683920000000001E-2</v>
       </c>
       <c r="B152">
-        <f t="shared" ref="B152:D152" si="24">AVERAGE(B147:B151)</f>
+        <f t="shared" ref="B152:D152" si="25">AVERAGE(B147:B151)</f>
         <v>5.6583700000000002E-4</v>
       </c>
       <c r="C152">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.4068140000000002E-4</v>
       </c>
       <c r="D152">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4490438399999999E-2</v>
       </c>
     </row>
@@ -9693,7 +10743,7 @@
         <v>2.4488899999999998E-4</v>
       </c>
       <c r="D154">
-        <f t="shared" ref="D154:D158" si="25">SUM(A154:C154)</f>
+        <f t="shared" ref="D154:D158" si="26">SUM(A154:C154)</f>
         <v>3.8574970999999993E-2</v>
       </c>
     </row>
@@ -9708,7 +10758,7 @@
         <v>2.4488899999999998E-4</v>
       </c>
       <c r="D155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.2853518999999998E-2</v>
       </c>
     </row>
@@ -9723,7 +10773,7 @@
         <v>2.4503699999999998E-4</v>
       </c>
       <c r="D156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.5369167E-2</v>
       </c>
     </row>
@@ -9738,7 +10788,7 @@
         <v>2.4474099999999998E-4</v>
       </c>
       <c r="D157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.5621151999999996E-2</v>
       </c>
     </row>
@@ -9753,25 +10803,25 @@
         <v>2.4474000000000002E-4</v>
       </c>
       <c r="D158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.0190405999999998E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" ref="A159" si="26">AVERAGE(A154:A158)</f>
+        <f t="shared" ref="A159" si="27">AVERAGE(A154:A158)</f>
         <v>3.5963679999999998E-2</v>
       </c>
       <c r="B159">
-        <f t="shared" ref="B159" si="27">AVERAGE(B154:B158)</f>
+        <f t="shared" ref="B159" si="28">AVERAGE(B154:B158)</f>
         <v>3.1330380000000002E-4</v>
       </c>
       <c r="C159">
-        <f t="shared" ref="C159:D165" si="28">AVERAGE(C154:C158)</f>
+        <f t="shared" ref="C159:D159" si="29">AVERAGE(C154:C158)</f>
         <v>2.4485920000000001E-4</v>
       </c>
       <c r="D159">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.6521842999999998E-2</v>
       </c>
     </row>
@@ -9791,7 +10841,7 @@
         <v>4.3896300000000001E-4</v>
       </c>
       <c r="D161">
-        <f t="shared" ref="D161:D165" si="29">SUM(A161:C161)</f>
+        <f t="shared" ref="D161:D165" si="30">SUM(A161:C161)</f>
         <v>2.4091429000000001E-2</v>
       </c>
     </row>
@@ -9806,7 +10856,7 @@
         <v>4.3896300000000001E-4</v>
       </c>
       <c r="D162">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.5338100000000002E-2</v>
       </c>
     </row>
@@ -9821,7 +10871,7 @@
         <v>4.39407E-4</v>
       </c>
       <c r="D163">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.5122651999999999E-2</v>
       </c>
     </row>
@@ -9836,7 +10886,7 @@
         <v>4.39111E-4</v>
       </c>
       <c r="D164">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4317944000000001E-2</v>
       </c>
     </row>
@@ -9851,25 +10901,25 @@
         <v>2.4488899999999998E-4</v>
       </c>
       <c r="D165">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.2887715000000003E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f t="shared" ref="A166" si="30">AVERAGE(A161:A165)</f>
+        <f t="shared" ref="A166" si="31">AVERAGE(A161:A165)</f>
         <v>2.3433820000000001E-2</v>
       </c>
       <c r="B166">
-        <f t="shared" ref="B166" si="31">AVERAGE(B161:B165)</f>
+        <f t="shared" ref="B166" si="32">AVERAGE(B161:B165)</f>
         <v>5.1748140000000011E-4</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:D166" si="32">AVERAGE(C161:C165)</f>
+        <f t="shared" ref="C166:D166" si="33">AVERAGE(C161:C165)</f>
         <v>4.0026660000000002E-4</v>
       </c>
       <c r="D166">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.4351568000000001E-2</v>
       </c>
     </row>
@@ -9889,7 +10939,7 @@
         <v>4.4118500000000003E-4</v>
       </c>
       <c r="D168">
-        <f t="shared" ref="D168:D172" si="33">SUM(A168:C168)</f>
+        <f t="shared" ref="D168:D172" si="34">SUM(A168:C168)</f>
         <v>1.5531095999999999E-2</v>
       </c>
     </row>
@@ -9904,7 +10954,7 @@
         <v>4.4133399999999999E-4</v>
       </c>
       <c r="D169">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.4964122999999999E-2</v>
       </c>
     </row>
@@ -9919,7 +10969,7 @@
         <v>4.4133300000000002E-4</v>
       </c>
       <c r="D170">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.4813366999999999E-2</v>
       </c>
     </row>
@@ -9934,7 +10984,7 @@
         <v>4.4133399999999999E-4</v>
       </c>
       <c r="D171">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.6472441000000001E-2</v>
       </c>
     </row>
@@ -9949,25 +10999,25 @@
         <v>4.4103700000000003E-4</v>
       </c>
       <c r="D172">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.5856593000000002E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" ref="A173" si="34">AVERAGE(A168:A172)</f>
+        <f t="shared" ref="A173" si="35">AVERAGE(A168:A172)</f>
         <v>1.4528620000000001E-2</v>
       </c>
       <c r="B173">
-        <f t="shared" ref="B173" si="35">AVERAGE(B168:B172)</f>
+        <f t="shared" ref="B173" si="36">AVERAGE(B168:B172)</f>
         <v>5.5765939999999998E-4</v>
       </c>
       <c r="C173">
-        <f t="shared" ref="C173" si="36">AVERAGE(C168:C172)</f>
+        <f t="shared" ref="C173" si="37">AVERAGE(C168:C172)</f>
         <v>4.4124460000000002E-4</v>
       </c>
       <c r="D173">
-        <f t="shared" ref="D173" si="37">AVERAGE(D168:D172)</f>
+        <f t="shared" ref="D173" si="38">AVERAGE(D168:D172)</f>
         <v>1.5527524000000001E-2</v>
       </c>
     </row>

--- a/thoh/毕业论文/数据计算草稿.xlsx
+++ b/thoh/毕业论文/数据计算草稿.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="2380" windowWidth="15420" windowHeight="11240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,12 +44,111 @@
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>hd_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_d/d_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下v右w</t>
+    <rPh sb="0" eb="1">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stanford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预处理</t>
+    <rPh sb="0" eb="1">
+      <t>yu chu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未预处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的方案</t>
+    <rPh sb="0" eb="1">
+      <t>wo men de fang an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stanford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000000000000_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,8 +184,28 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -98,12 +217,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -156,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -200,22 +325,125 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="127">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -238,6 +466,48 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -259,6 +529,48 @@
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -326,6 +638,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -442,11 +755,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-832725472"/>
-        <c:axId val="-833128816"/>
+        <c:axId val="988819344"/>
+        <c:axId val="1058274752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-832725472"/>
+        <c:axId val="988819344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +802,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-833128816"/>
+        <c:crossAx val="1058274752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -497,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-833128816"/>
+        <c:axId val="1058274752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +863,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-832725472"/>
+        <c:crossAx val="988819344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -564,6 +877,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -626,6 +940,1025 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Kernel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>从</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>到</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>聚合时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>）柱形图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(工作表1!$A$175,工作表1!$A$182,工作表1!$A$189,工作表1!$A$196)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(工作表1!$D$181,工作表1!$D$188,工作表1!$D$195,工作表1!$D$202)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0018604362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0010927238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0008160202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0008455824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1061700000"/>
+        <c:axId val="1061702752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1061700000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061702752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1061702752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061700000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>预处理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>全</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>生成时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）柱形图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$300:$C$300</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>预处理</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>未预处理</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$298:$C$298</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.289799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.901132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1061722304"/>
+        <c:axId val="1061725056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1061722304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061725056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1061725056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061722304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>预处理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>全</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>cuboid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>生成时间（单位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>）柱形图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$318:$C$318</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>我们的方案</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stanford</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(工作表1!$B$302,工作表1!$C$302)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000_ </c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.00081504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00087807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="988752320"/>
+        <c:axId val="987836272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="988752320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="987836272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="987836272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="988752320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -699,6 +2032,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -815,11 +2149,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-776482624"/>
-        <c:axId val="-776480848"/>
+        <c:axId val="1058450688"/>
+        <c:axId val="1058427104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-776482624"/>
+        <c:axId val="1058450688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +2195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776480848"/>
+        <c:crossAx val="1058427104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-776480848"/>
+        <c:axId val="1058427104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,6 +2223,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -919,7 +2254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776482624"/>
+        <c:crossAx val="1058450688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -933,6 +2268,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1063,6 +2399,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1219,11 +2556,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-776525360"/>
-        <c:axId val="-776554688"/>
+        <c:axId val="1027535840"/>
+        <c:axId val="1065188256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-776525360"/>
+        <c:axId val="1027535840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +2603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776554688"/>
+        <c:crossAx val="1065188256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1274,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-776554688"/>
+        <c:axId val="1065188256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00105"/>
@@ -1326,7 +2663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776525360"/>
+        <c:crossAx val="1027535840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1340,6 +2677,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,6 +2825,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1643,11 +2982,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-776560880"/>
-        <c:axId val="-776583600"/>
+        <c:axId val="1027136208"/>
+        <c:axId val="1057811344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-776560880"/>
+        <c:axId val="1027136208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +3029,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776583600"/>
+        <c:crossAx val="1057811344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +3037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-776583600"/>
+        <c:axId val="1057811344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.00033"/>
@@ -1720,6 +3059,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1750,7 +3090,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776560880"/>
+        <c:crossAx val="1027136208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,6 +3104,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2011,11 +3352,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-777632736"/>
-        <c:axId val="-777509632"/>
+        <c:axId val="1058343248"/>
+        <c:axId val="1058463568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-777632736"/>
+        <c:axId val="1058343248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +3399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777509632"/>
+        <c:crossAx val="1058463568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2066,7 +3407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-777509632"/>
+        <c:axId val="1058463568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +3458,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777632736"/>
+        <c:crossAx val="1058343248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2423,11 +3764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-777084272"/>
-        <c:axId val="-831110464"/>
+        <c:axId val="1057704896"/>
+        <c:axId val="1026978064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-777084272"/>
+        <c:axId val="1057704896"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2486,12 +3827,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-831110464"/>
+        <c:crossAx val="1026978064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-831110464"/>
+        <c:axId val="1026978064"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2548,7 +3889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777084272"/>
+        <c:crossAx val="1057704896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2782,11 +4123,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-776592656"/>
-        <c:axId val="-776622912"/>
+        <c:axId val="1058453280"/>
+        <c:axId val="1057026704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-776592656"/>
+        <c:axId val="1058453280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,7 +4170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776622912"/>
+        <c:crossAx val="1057026704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2837,7 +4178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-776622912"/>
+        <c:axId val="1057026704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +4228,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776592656"/>
+        <c:crossAx val="1058453280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3115,11 +4456,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-777118576"/>
-        <c:axId val="-777205664"/>
+        <c:axId val="1027578736"/>
+        <c:axId val="1027430496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-777118576"/>
+        <c:axId val="1027578736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,7 +4503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777205664"/>
+        <c:crossAx val="1027430496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3170,7 +4511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-777205664"/>
+        <c:axId val="1027430496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3220,7 +4561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777118576"/>
+        <c:crossAx val="1027578736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3471,11 +4812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-832186736"/>
-        <c:axId val="-835014848"/>
+        <c:axId val="1030897552"/>
+        <c:axId val="1061236048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-832186736"/>
+        <c:axId val="1030897552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,12 +4872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-835014848"/>
+        <c:crossAx val="1061236048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-835014848"/>
+        <c:axId val="1061236048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +4933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-832186736"/>
+        <c:crossAx val="1030897552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3674,6 +5015,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4536,6 +5997,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8858,6 +11828,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115260</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>90500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226252</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>197650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584841</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>53147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12807</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>64246</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>227320</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>117181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>103522</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>170969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9124,1195 +12184,1201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O318"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A101" zoomScale="119" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A300" zoomScale="119" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>166.29</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>21.0871</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2.7441200000000001</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>0.350161</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>168.18100000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>20.954499999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2.7265199999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.34717599999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>167.26400000000001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>21.070699999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.7533099999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.354771</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>165.62799999999999</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>21.382100000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2.7442700000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.35381800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>165.983</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>21.071200000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2.74024</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.35412199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <f>AVERAGE(A1:A5)</f>
         <v>166.66919999999999</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>AVERAGE(B1:B5)</f>
         <v>21.113120000000002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" ref="C6:D6" si="0">AVERAGE(C1:C5)</f>
         <v>2.7416919999999996</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.35200960000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>136</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>31</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>79</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>A9*B9*C9</f>
         <v>26939</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>$A$8*D9+$B$8</f>
         <v>3663708</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2.7969500000000001E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>2.6116799999999999E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>2.4481699999999999E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>3.2162099999999999E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>2.6216699999999999E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f>AVERAGE(F9:J9)</f>
         <v>2.7389360000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>101</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f>A10*B10*C10</f>
         <v>24947</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>$A$8*D10+$B$8</f>
         <v>3392796</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>A11*B11*C11</f>
         <v>1001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" ref="E11:E12" si="1">$A$8*D11+$B$8</f>
         <v>136140</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>8.7279700000000003E-4</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>7.2154800000000002E-4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>8.3918299999999996E-4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>8.4719600000000004E-4</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>7.70078E-4</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f t="shared" ref="K11" si="2">AVERAGE(F11:J11)</f>
         <v>8.1016040000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f>A12*B12*C12</f>
         <v>105</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>14284</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>2.7637100000000001</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2.9511099999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2.9335499999999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2.6424699999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2.76084</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f>AVERAGE(B14:F14)</f>
         <v>2.8103359999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1.7837000000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1.78552</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1.84172</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>1.7930699999999999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1.7867599999999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f t="shared" ref="G15:G23" si="3">AVERAGE(B15:F15)</f>
         <v>1.7981539999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1.68628</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1.7434799999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1.70278</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>1.6884399999999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1.6873800000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
         <v>1.7016719999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1.6958899999999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1.7083900000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1.71671</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>1.76871</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1.7028399999999999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f t="shared" si="3"/>
         <v>1.7185079999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1.6270899999999999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1.64252</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1.61145</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1.6164000000000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1.6279399999999999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
         <v>1.6250800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>262144</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>2.3454599999999999E-2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2.26307E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>3.2100499999999997E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>2.25455E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>2.96627E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f t="shared" si="3"/>
         <v>2.6078800000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <f>A20*8</f>
         <v>2097152</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>6.9671200000000003E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>6.6352900000000006E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>6.6452700000000003E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>6.5012200000000006E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>6.9173799999999994E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f t="shared" si="3"/>
         <v>6.7332560000000014E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <f t="shared" ref="A22:A23" si="4">A21*8</f>
         <v>16777216</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0.38750099999999998</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.40157300000000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.38253700000000002</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.41733399999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0.40669899999999998</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f t="shared" si="3"/>
         <v>0.39912879999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>134217728</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1.6270899999999999</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1.64252</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1.61145</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>1.6164000000000001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>1.6279399999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <f t="shared" si="3"/>
         <v>1.6250800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24947</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>134217728</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>24947</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>262144</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>3333</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>262144</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>8.4996699999999998E-4</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f>2.2376/100000</f>
         <v>2.2376000000000001E-5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <f>7.304/1000000</f>
         <v>7.3039999999999999E-6</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <f t="shared" ref="D26:D31" si="5">SUM(A26:C26)</f>
         <v>8.7964699999999989E-4</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>8.52248E-4</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f>2.4348/100000</f>
         <v>2.4348000000000001E-5</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f>5.477/1000000</f>
         <v>5.4770000000000002E-6</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <f>SUM(F26:H26)</f>
         <v>8.8207300000000004E-4</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>2.6577000000000003E-4</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <f>6.192/1000000</f>
         <v>6.1920000000000002E-6</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <f>5.146/1000000</f>
         <v>5.1459999999999995E-6</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <f>SUM(K26:M26)</f>
         <v>2.7710800000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>8.5836300000000001E-4</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <f>2.7017/100000</f>
         <v>2.7017000000000002E-5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <f>5.823/1000000</f>
         <v>5.823E-6</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <f t="shared" si="5"/>
         <v>8.9120300000000003E-4</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>8.5793399999999998E-4</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <f>3.3282/100000</f>
         <v>3.3281999999999997E-5</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f>5.853/1000000</f>
         <v>5.8529999999999997E-6</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <f t="shared" ref="I27:I39" si="6">SUM(F27:H27)</f>
         <v>8.9706900000000001E-4</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>2.6943399999999998E-4</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <f>9.971/1000000</f>
         <v>9.9709999999999999E-6</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <f>5.301/1000000</f>
         <v>5.3010000000000006E-6</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <f t="shared" ref="N27:N31" si="7">SUM(K27:M27)</f>
         <v>2.8470599999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>8.4171699999999996E-4</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <f>2.8714/100000</f>
         <v>2.8714E-5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <f>5.564/1000000</f>
         <v>5.5640000000000004E-6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <f t="shared" si="5"/>
         <v>8.7599499999999996E-4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>8.53246E-4</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <f>2.768/100000</f>
         <v>2.7679999999999999E-5</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f>7.249/1000000</f>
         <v>7.2489999999999995E-6</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <f t="shared" si="6"/>
         <v>8.8817499999999995E-4</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>2.9135000000000001E-4</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <f>8.558/1000000</f>
         <v>8.5580000000000001E-6</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <f>7.1/1000000</f>
         <v>7.0999999999999998E-6</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <f t="shared" si="7"/>
         <v>3.07008E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>8.5839E-4</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <f>3.5885/100000</f>
         <v>3.5884999999999999E-5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <f>5.363/1000000</f>
         <v>5.3630000000000002E-6</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <f t="shared" si="5"/>
         <v>8.9963800000000002E-4</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>8.7358800000000001E-4</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <f>2.2097/100000</f>
         <v>2.2097000000000002E-5</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <f>6.894/1000000</f>
         <v>6.8940000000000004E-6</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <f t="shared" si="6"/>
         <v>9.0257900000000003E-4</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <f>0.000290625</f>
         <v>2.9062499999999998E-4</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <f>6.748/1000000</f>
         <v>6.7480000000000004E-6</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <f>5.033/1000000</f>
         <v>5.0330000000000008E-6</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <f t="shared" si="7"/>
         <v>3.0240599999999996E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>8.5075000000000005E-4</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <f>2.803/100000</f>
         <v>2.8030000000000001E-5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <f>6.69/1000000</f>
         <v>6.6900000000000003E-6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <f t="shared" si="5"/>
         <v>8.8546999999999996E-4</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>8.6265799999999998E-4</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <f>2.3544/100000</f>
         <v>2.3544E-5</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <f>6.545/1000000</f>
         <v>6.545E-6</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <f t="shared" si="6"/>
         <v>8.9274700000000005E-4</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>2.6794200000000002E-4</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <f>6.454/1000000</f>
         <v>6.4539999999999995E-6</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <f>6.08/1000000</f>
         <v>6.0800000000000002E-6</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <f t="shared" si="7"/>
         <v>2.8047599999999999E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <f>AVERAGE(A26:A30)</f>
         <v>8.5183740000000006E-4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <f>AVERAGE(B26:B30)</f>
         <v>2.8404400000000002E-5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
         <v>6.1488000000000003E-6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <f t="shared" si="5"/>
         <v>8.8639060000000013E-4</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <f t="shared" ref="F31:H31" si="8">AVERAGE(F26:F30)</f>
         <v>8.5993479999999997E-4</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <f t="shared" si="8"/>
         <v>2.6190199999999999E-5</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <f t="shared" si="8"/>
         <v>6.4035999999999991E-6</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <f t="shared" si="6"/>
         <v>8.9252859999999995E-4</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <f t="shared" ref="K31" si="9">AVERAGE(K26:K30)</f>
         <v>2.7702420000000002E-4</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <f t="shared" ref="L31" si="10">AVERAGE(L26:L30)</f>
         <v>7.5846000000000019E-6</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <f t="shared" ref="M31" si="11">AVERAGE(M26:M30)</f>
         <v>5.7320000000000003E-6</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <f t="shared" si="7"/>
         <v>2.9034080000000004E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>24947</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>134217728</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>24947</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>262144</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>3333</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>262144</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>8.0987500000000005E-4</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <f>9.7339/100000</f>
         <v>9.7338999999999998E-5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <f>2.9385/100000</f>
         <v>2.9384999999999997E-5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <f>SUM(A34:C34)</f>
         <v>9.3659900000000009E-4</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>8.1906000000000004E-4</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <f>0.000140989</f>
         <v>1.40989E-4</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <f>1.441/100000</f>
         <v>1.4410000000000001E-5</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <f t="shared" si="6"/>
         <v>9.74459E-4</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>2.47889E-4</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <f>3.0718/100000</f>
         <v>3.0718E-5</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <f>1.2592/100000</f>
         <v>1.2592000000000001E-5</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <f>SUM(K34:M34)</f>
         <v>2.9119900000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>8.5035700000000004E-4</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>1.0650300000000001E-4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <f>2.3903/100000</f>
         <v>2.3902999999999998E-5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <f t="shared" ref="D35:D39" si="12">SUM(A35:C35)</f>
         <v>9.8076299999999995E-4</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <f>0.000822067</f>
         <v>8.22067E-4</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <f>9.4332/100000</f>
         <v>9.4331999999999991E-5</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <f>1.469/100000</f>
         <v>1.4690000000000002E-5</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <f t="shared" si="6"/>
         <v>9.3108900000000007E-4</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <f>0.000243143</f>
         <v>2.43143E-4</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <f>6.6642/100000</f>
         <v>6.6642000000000003E-5</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <f>2.3353/100000</f>
         <v>2.3353000000000002E-5</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <f t="shared" ref="N35:N39" si="13">SUM(K35:M35)</f>
         <v>3.3313800000000002E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>8.0631099999999999E-4</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <f>9.5893/100000</f>
         <v>9.5892999999999998E-5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <f>1.3327/100000</f>
         <v>1.3327E-5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <f t="shared" si="12"/>
         <v>9.1553100000000003E-4</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>8.2891599999999996E-4</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <f>0.91399/10000</f>
         <v>9.1398999999999997E-5</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <f>1.5984/100000</f>
         <v>1.5984000000000001E-5</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <f t="shared" si="6"/>
         <v>9.3629900000000003E-4</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>2.7849E-4</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <f>4.9892/100000</f>
         <v>4.9892000000000003E-5</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <f>2.2506/100000</f>
         <v>2.2506000000000001E-5</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <f t="shared" si="13"/>
         <v>3.5088799999999999E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>8.3649500000000003E-4</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>1.1265E-4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <f>1.4173/100000</f>
         <v>1.4173E-5</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <f t="shared" si="12"/>
         <v>9.6331800000000001E-4</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>8.2989999999999995E-4</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <f>9.3992/100000</f>
         <v>9.3992000000000004E-5</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <f>2.8754/100000</f>
         <v>2.8753999999999999E-5</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <f t="shared" si="6"/>
         <v>9.5264599999999992E-4</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>2.3694300000000001E-4</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <f>4.0064/100000</f>
         <v>4.0064000000000001E-5</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <f>2.9644/100000</f>
         <v>2.9643999999999999E-5</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <f t="shared" si="13"/>
         <v>3.0665100000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>8.4119900000000005E-4</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>1.0745E-4</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <f>1.2231/100000</f>
         <v>1.2231E-5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <f t="shared" si="12"/>
         <v>9.6088000000000011E-4</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>8.69621E-4</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>1.6830999999999999E-4</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <f>1.5237/100000</f>
         <v>1.5237E-5</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <f t="shared" si="6"/>
         <v>1.0531679999999999E-3</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>2.44114E-4</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <f>4.3152/100000</f>
         <v>4.3151999999999996E-5</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <f>1.982/100000</f>
         <v>1.982E-5</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <f t="shared" si="13"/>
         <v>3.0708599999999998E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <f>AVERAGE(A34:A38)</f>
         <v>8.288474000000001E-4</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <f>AVERAGE(B34:B38)</f>
         <v>1.0396699999999999E-4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <f>AVERAGE(C34:C38)</f>
         <v>1.86038E-5</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <f t="shared" si="12"/>
         <v>9.5141820000000006E-4</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <f t="shared" ref="F39" si="14">AVERAGE(F34:F38)</f>
         <v>8.3391279999999997E-4</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <f t="shared" ref="G39" si="15">AVERAGE(G34:G38)</f>
         <v>1.1780439999999999E-4</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <f t="shared" ref="H39" si="16">AVERAGE(H34:H38)</f>
         <v>1.7815000000000001E-5</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <f t="shared" si="6"/>
         <v>9.6953220000000001E-4</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <f t="shared" ref="K39" si="17">AVERAGE(K34:K38)</f>
         <v>2.5011579999999997E-4</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="1">
         <f t="shared" ref="L39" si="18">AVERAGE(L34:L38)</f>
         <v>4.6093600000000002E-5</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="1">
         <f t="shared" ref="M39" si="19">AVERAGE(M34:M38)</f>
         <v>2.1583E-5</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <f t="shared" si="13"/>
         <v>3.1779239999999998E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>58619328</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>2178240</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <f>A41-B41</f>
         <v>56441088</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>2.7389360000000001E-2</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>8.1015999999999998E-4</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <f>A42-B42</f>
         <v>2.6579200000000001E-2</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <f>C42/C41</f>
         <v>4.709193415973838E-10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>3479769</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>27841394</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>222741273</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>1781907696</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>0.35200959999999998</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>2.741692</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>21.113119999999999</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>166.66919999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>8.518E-4</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <f>2.84044/100000</f>
         <v>2.8404400000000002E-5</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <f>6.1488/1000000</f>
         <v>6.1487999999999995E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>8.5990000000000003E-4</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <f>2.61902/100000</f>
         <v>2.6190199999999999E-5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <f>6.4036/1000000</f>
         <v>6.4036E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>8.2879999999999998E-4</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>1.03967E-4</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <f>1.86038/100000</f>
         <v>1.86038E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>8.3390000000000005E-4</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1.17804E-4</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <f>0.000017815</f>
         <v>1.7815000000000001E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>8.5993500000000004E-4</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>2.6190000000000002E-5</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>6.404E-6</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <f>SUM(A74:C74)</f>
         <v>8.9252900000000009E-4</v>
       </c>
@@ -10325,22 +13391,22 @@
       <c r="I74" s="4">
         <v>5.7320000000000003E-6</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1">
         <f>SUM(G74:I74)</f>
         <v>2.9033999999999999E-4</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>8.3391300000000004E-4</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>1.6830999999999999E-4</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>1.7815000000000001E-5</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <f>SUM(A75:C75)</f>
         <v>1.020038E-3</v>
       </c>
@@ -10353,13 +13419,13 @@
       <c r="I75" s="4">
         <v>2.1583E-5</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <f>SUM(G75:I75)</f>
         <v>3.27793E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2.8103359999999999</v>
       </c>
@@ -10376,649 +13442,2451 @@
         <v>1.6250800000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>262144</v>
       </c>
       <c r="B107" s="3">
         <v>2.6078799999999999E-2</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <f>LOG(A107, 2)</f>
         <v>18</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <f>LOG(B107, 2)</f>
         <v>-5.2609787034066278</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>2097152</v>
       </c>
       <c r="B108" s="5">
         <v>6.733256E-2</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <f t="shared" ref="C108:C110" si="20">LOG(A108, 2)</f>
         <v>21</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <f t="shared" ref="D108:D110" si="21">LOG(B108, 2)</f>
         <v>-3.8925518722934078</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>16777216</v>
       </c>
       <c r="B109" s="5">
         <v>0.39912880000000001</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <f t="shared" si="20"/>
         <v>24</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <f t="shared" si="21"/>
         <v>-1.3250737115077584</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="1">
         <f>1/58619328/1000000</f>
         <v>1.7059219784982866E-14</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>134217728</v>
       </c>
       <c r="B110" s="5">
         <v>1.6250800000000001</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <f t="shared" si="20"/>
         <v>27</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <f t="shared" si="21"/>
         <v>0.70051074137947067</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>12</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>7.5043899999999999</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>7.50448</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>7.5036300000000002</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>7.50387</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>7.5021199999999997</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <f>AVERAGE(B126:F126)</f>
         <v>7.503698</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>16</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>6.2568999999999999</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>6.2636099999999999</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>6.2585199999999999</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>6.2589600000000001</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>6.2641799999999996</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <f t="shared" ref="G127:G130" si="22">AVERAGE(B127:F127)</f>
         <v>6.2604340000000001</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="1">
         <v>3479769</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="1">
         <v>8.2798999999999998E-2</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="1">
         <v>8.1167000000000003E-2</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="1">
         <v>8.0090999999999996E-2</v>
       </c>
-      <c r="O127">
-        <f t="shared" ref="O126:O129" si="23">AVERAGE(L127:N127)</f>
+      <c r="O127" s="1">
+        <f t="shared" ref="O127:O129" si="23">AVERAGE(L127:N127)</f>
         <v>8.1352333333333332E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>32</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>3.7608700000000002</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>3.76335</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>3.7634500000000002</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>3.76139</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>3.7601900000000001</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <f t="shared" si="22"/>
         <v>3.7618500000000004</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="1">
         <v>27841394</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="1">
         <v>0.39396599999999998</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="1">
         <v>0.36890499999999998</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="1">
         <v>0.39977699999999999</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="1">
         <f t="shared" si="23"/>
         <v>0.3875493333333333</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>48</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>2.97166</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>2.97159</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>2.9715799999999999</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>2.9714</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>2.9714100000000001</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <f t="shared" si="22"/>
         <v>2.9715280000000002</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="1">
         <v>222741273</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="1">
         <v>2.8892699999999998</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="1">
         <v>2.7970899999999999</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="1">
         <v>2.8869199999999999</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="1">
         <f t="shared" si="23"/>
         <v>2.8577600000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>64</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>2.9683899999999999</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>2.96692</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>2.9679000000000002</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <v>2.9679199999999999</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
         <v>2.9668000000000001</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1">
         <f t="shared" si="22"/>
         <v>2.9675859999999998</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="1">
         <v>1781907696</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="1">
         <v>22.743264</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="1">
         <v>22.236889000000001</v>
       </c>
-      <c r="N130">
+      <c r="N130" s="1">
         <v>22.532442</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="1">
         <f>AVERAGE(L130:N130)</f>
         <v>22.504198333333335</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>4.1161499999999997E-2</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>5.5081399999999995E-4</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>2.2977800000000001E-4</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <f>SUM(A147:C147)</f>
         <v>4.1942091999999993E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>4.3922200000000002E-2</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>5.5822200000000004E-4</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>2.2977800000000001E-4</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <f t="shared" ref="D148:D151" si="24">SUM(A148:C148)</f>
         <v>4.4710199999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>4.6547699999999997E-2</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>5.8844500000000005E-4</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>2.4459200000000002E-4</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <f t="shared" si="24"/>
         <v>4.7380736999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>4.4202400000000003E-2</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>5.7911099999999999E-4</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>2.2962899999999999E-4</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <f t="shared" si="24"/>
         <v>4.5011140000000005E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>4.25858E-2</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>5.5259299999999999E-4</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>2.6962999999999998E-4</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <f t="shared" si="24"/>
         <v>4.3408022999999997E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <f>AVERAGE(A147:A151)</f>
         <v>4.3683920000000001E-2</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <f t="shared" ref="B152:D152" si="25">AVERAGE(B147:B151)</f>
         <v>5.6583700000000002E-4</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <f t="shared" si="25"/>
         <v>2.4068140000000002E-4</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <f t="shared" si="25"/>
         <v>4.4490438399999999E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>3.8016599999999998E-2</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>3.1348200000000002E-4</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>2.4488899999999998E-4</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <f t="shared" ref="D154:D158" si="26">SUM(A154:C154)</f>
         <v>3.8574970999999993E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>3.2294999999999997E-2</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>3.1363000000000002E-4</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>2.4488899999999998E-4</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <f t="shared" si="26"/>
         <v>3.2853518999999998E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>3.4810500000000001E-2</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>3.1363000000000002E-4</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>2.4503699999999998E-4</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <f t="shared" si="26"/>
         <v>3.5369167E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>3.5061299999999997E-2</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>3.1511100000000003E-4</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>2.4474099999999998E-4</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <f t="shared" si="26"/>
         <v>3.5621151999999996E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>3.9634999999999997E-2</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>3.1066600000000002E-4</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>2.4474000000000002E-4</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <f t="shared" si="26"/>
         <v>4.0190405999999998E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <f t="shared" ref="A159" si="27">AVERAGE(A154:A158)</f>
         <v>3.5963679999999998E-2</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <f t="shared" ref="B159" si="28">AVERAGE(B154:B158)</f>
         <v>3.1330380000000002E-4</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <f t="shared" ref="C159:D159" si="29">AVERAGE(C154:C158)</f>
         <v>2.4485920000000001E-4</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <f t="shared" si="29"/>
         <v>3.6521842999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>2.30858E-2</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>5.6666599999999996E-4</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>4.3896300000000001E-4</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <f t="shared" ref="D161:D165" si="30">SUM(A161:C161)</f>
         <v>2.4091429000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>2.43301E-2</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>5.6903699999999999E-4</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>4.3896300000000001E-4</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <f t="shared" si="30"/>
         <v>2.5338100000000002E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>2.4118799999999999E-2</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>5.6444500000000001E-4</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>4.39407E-4</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <f t="shared" si="30"/>
         <v>2.5122651999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>2.33095E-2</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>5.6933299999999999E-4</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>4.39111E-4</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <f t="shared" si="30"/>
         <v>2.4317944000000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>2.2324900000000002E-2</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>3.1792600000000001E-4</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>2.4488899999999998E-4</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <f t="shared" si="30"/>
         <v>2.2887715000000003E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <f t="shared" ref="A166" si="31">AVERAGE(A161:A165)</f>
         <v>2.3433820000000001E-2</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <f t="shared" ref="B166" si="32">AVERAGE(B161:B165)</f>
         <v>5.1748140000000011E-4</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <f t="shared" ref="C166:D166" si="33">AVERAGE(C161:C165)</f>
         <v>4.0026660000000002E-4</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <f t="shared" si="33"/>
         <v>2.4351568000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>1.45308E-2</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>5.5911100000000005E-4</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>4.4118500000000003E-4</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <f t="shared" ref="D168:D172" si="34">SUM(A168:C168)</f>
         <v>1.5531095999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>1.39659E-2</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>5.5688899999999997E-4</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>4.4133399999999999E-4</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <f t="shared" si="34"/>
         <v>1.4964122999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>1.3814699999999999E-2</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>5.5733400000000004E-4</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>4.4133300000000002E-4</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <f t="shared" si="34"/>
         <v>1.4813366999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>1.54717E-2</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>5.5940700000000005E-4</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>4.4133399999999999E-4</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <f t="shared" si="34"/>
         <v>1.6472441000000001E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>1.486E-2</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>5.5555600000000002E-4</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>4.4103700000000003E-4</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <f t="shared" si="34"/>
         <v>1.5856593000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <f t="shared" ref="A173" si="35">AVERAGE(A168:A172)</f>
         <v>1.4528620000000001E-2</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <f t="shared" ref="B173" si="36">AVERAGE(B168:B172)</f>
         <v>5.5765939999999998E-4</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <f t="shared" ref="C173" si="37">AVERAGE(C168:C172)</f>
         <v>4.4124460000000002E-4</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <f t="shared" ref="D173" si="38">AVERAGE(D168:D172)</f>
         <v>1.5527524000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>1.7503900000000001E-3</v>
+      </c>
+      <c r="B176" s="1">
+        <f>1.7664/100000</f>
+        <v>1.7663999999999999E-5</v>
+      </c>
+      <c r="C176" s="1">
+        <f>1.439/1000000</f>
+        <v>1.4390000000000001E-6</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" ref="D176:D180" si="39">SUM(A176:C176)</f>
+        <v>1.769493E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>1.8990299999999999E-3</v>
+      </c>
+      <c r="B177" s="1">
+        <f>1.8476/100000</f>
+        <v>1.8476000000000001E-5</v>
+      </c>
+      <c r="C177" s="1">
+        <f>1.215/1000000</f>
+        <v>1.215E-6</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="39"/>
+        <v>1.9187209999999998E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>1.8667600000000001E-3</v>
+      </c>
+      <c r="B178" s="1">
+        <f>1.7934/100000</f>
+        <v>1.7934000000000001E-5</v>
+      </c>
+      <c r="C178" s="1">
+        <f>1.3/1000000</f>
+        <v>1.3E-6</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="39"/>
+        <v>1.8859940000000002E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>1.848E-3</v>
+      </c>
+      <c r="B179" s="1">
+        <f>1.7654/100000</f>
+        <v>1.7654000000000001E-5</v>
+      </c>
+      <c r="C179" s="1">
+        <f>1.542/1000000</f>
+        <v>1.542E-6</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="39"/>
+        <v>1.867196E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <f>0.00184129</f>
+        <v>1.84129E-3</v>
+      </c>
+      <c r="B180" s="1">
+        <f>1.8333/100000</f>
+        <v>1.8332999999999999E-5</v>
+      </c>
+      <c r="C180" s="1">
+        <f>1.154/1000000</f>
+        <v>1.1539999999999999E-6</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="39"/>
+        <v>1.8607769999999999E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <f t="shared" ref="A181:C181" si="40">AVERAGE(A176:A180)</f>
+        <v>1.8410940000000002E-3</v>
+      </c>
+      <c r="B181" s="1">
+        <f t="shared" si="40"/>
+        <v>1.80122E-5</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="40"/>
+        <v>1.3300000000000002E-6</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" ref="D181" si="41">AVERAGE(D176:D180)</f>
+        <v>1.8604361999999999E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>1.02476E-3</v>
+      </c>
+      <c r="B183" s="1">
+        <f>2.3619/100000</f>
+        <v>2.3618999999999999E-5</v>
+      </c>
+      <c r="C183" s="1">
+        <f>2.771/1000000</f>
+        <v>2.7709999999999998E-6</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" ref="D183:D187" si="42">SUM(A183:C183)</f>
+        <v>1.0511499999999998E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <f>0.00108588</f>
+        <v>1.08588E-3</v>
+      </c>
+      <c r="B184" s="1">
+        <f>3.0997/100000</f>
+        <v>3.0997000000000002E-5</v>
+      </c>
+      <c r="C184" s="1">
+        <f>2.617/1000000</f>
+        <v>2.6170000000000001E-6</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="42"/>
+        <v>1.119494E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>1.0432200000000001E-3</v>
+      </c>
+      <c r="B185" s="1">
+        <f>2.7231/100000</f>
+        <v>2.7231000000000001E-5</v>
+      </c>
+      <c r="C185" s="1">
+        <f>2.569/1000000</f>
+        <v>2.5689999999999999E-6</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="42"/>
+        <v>1.0730200000000001E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>1.10216E-3</v>
+      </c>
+      <c r="B186" s="1">
+        <f>2.6001/100000</f>
+        <v>2.6000999999999997E-5</v>
+      </c>
+      <c r="C186" s="1">
+        <f>2.972/1000000</f>
+        <v>2.9720000000000001E-6</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="42"/>
+        <v>1.1311329999999999E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>1.06273E-3</v>
+      </c>
+      <c r="B187" s="1">
+        <f>2.3935/100000</f>
+        <v>2.3935E-5</v>
+      </c>
+      <c r="C187" s="1">
+        <f>2.157/1000000</f>
+        <v>2.1569999999999998E-6</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="42"/>
+        <v>1.0888220000000001E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <f t="shared" ref="A188:C188" si="43">AVERAGE(A183:A187)</f>
+        <v>1.06375E-3</v>
+      </c>
+      <c r="B188" s="1">
+        <f t="shared" si="43"/>
+        <v>2.6356600000000001E-5</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="43"/>
+        <v>2.6172000000000001E-6</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" ref="D188" si="44">AVERAGE(D183:D187)</f>
+        <v>1.0927237999999999E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>7.6247399999999996E-4</v>
+      </c>
+      <c r="B190" s="1">
+        <f>2.8785/100000</f>
+        <v>2.8785E-5</v>
+      </c>
+      <c r="C190" s="1">
+        <f>4.648/1000000</f>
+        <v>4.6479999999999994E-6</v>
+      </c>
+      <c r="D190" s="1">
+        <f t="shared" ref="D190:D194" si="45">SUM(A190:C190)</f>
+        <v>7.9590699999999999E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>7.5641900000000004E-4</v>
+      </c>
+      <c r="B191" s="1">
+        <f>2.3243/100000</f>
+        <v>2.3243000000000001E-5</v>
+      </c>
+      <c r="C191" s="1">
+        <f>6.032/1000000</f>
+        <v>6.032E-6</v>
+      </c>
+      <c r="D191" s="1">
+        <f t="shared" si="45"/>
+        <v>7.8569400000000008E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>7.5479699999999998E-4</v>
+      </c>
+      <c r="B192" s="1">
+        <f>3.3826/100000</f>
+        <v>3.3825999999999998E-5</v>
+      </c>
+      <c r="C192" s="1">
+        <f>4.252/1000000</f>
+        <v>4.2520000000000001E-6</v>
+      </c>
+      <c r="D192" s="1">
+        <f t="shared" si="45"/>
+        <v>7.9287500000000007E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <f>0.000798323</f>
+        <v>7.9832299999999998E-4</v>
+      </c>
+      <c r="B193" s="1">
+        <f>4.5796/100000</f>
+        <v>4.5796E-5</v>
+      </c>
+      <c r="C193" s="1">
+        <f>5.048/1000000</f>
+        <v>5.0479999999999998E-6</v>
+      </c>
+      <c r="D193" s="1">
+        <f t="shared" si="45"/>
+        <v>8.4916699999999996E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>8.2671100000000005E-4</v>
+      </c>
+      <c r="B194" s="1">
+        <f>2.3958/100000</f>
+        <v>2.3958E-5</v>
+      </c>
+      <c r="C194" s="1">
+        <f>5.789/1000000</f>
+        <v>5.789E-6</v>
+      </c>
+      <c r="D194" s="1">
+        <f t="shared" si="45"/>
+        <v>8.5645800000000005E-4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <f t="shared" ref="A195:C195" si="46">AVERAGE(A190:A194)</f>
+        <v>7.7974480000000002E-4</v>
+      </c>
+      <c r="B195" s="1">
+        <f t="shared" si="46"/>
+        <v>3.1121600000000004E-5</v>
+      </c>
+      <c r="C195" s="1">
+        <f t="shared" si="46"/>
+        <v>5.1537999999999997E-6</v>
+      </c>
+      <c r="D195" s="1">
+        <f t="shared" ref="D195" si="47">AVERAGE(D190:D194)</f>
+        <v>8.1602020000000016E-4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>7.8678600000000004E-4</v>
+      </c>
+      <c r="B197" s="1">
+        <f>2.5319/100000</f>
+        <v>2.5318999999999999E-5</v>
+      </c>
+      <c r="C197" s="1">
+        <f>5.409/1000000</f>
+        <v>5.4090000000000002E-6</v>
+      </c>
+      <c r="D197" s="1">
+        <f t="shared" ref="D197:D201" si="48">SUM(A197:C197)</f>
+        <v>8.1751399999999998E-4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>8.1554399999999997E-4</v>
+      </c>
+      <c r="B198" s="1">
+        <f>2.5667/100000</f>
+        <v>2.5667E-5</v>
+      </c>
+      <c r="C198" s="1">
+        <f>5.29/1000000</f>
+        <v>5.2900000000000002E-6</v>
+      </c>
+      <c r="D198" s="1">
+        <f t="shared" si="48"/>
+        <v>8.4650100000000005E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>8.0413200000000005E-4</v>
+      </c>
+      <c r="B199" s="1">
+        <f>2.8928/100000</f>
+        <v>2.8927999999999998E-5</v>
+      </c>
+      <c r="C199" s="1">
+        <f>5.478/1000000</f>
+        <v>5.4779999999999999E-6</v>
+      </c>
+      <c r="D199" s="1">
+        <f t="shared" si="48"/>
+        <v>8.38538E-4</v>
+      </c>
+      <c r="F199" s="1">
+        <f xml:space="preserve"> 0.00184109 / 24947</f>
+        <v>7.3800056118972227E-8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>8.3034099999999996E-4</v>
+      </c>
+      <c r="B200" s="1">
+        <f>2.3684/100000</f>
+        <v>2.3683999999999999E-5</v>
+      </c>
+      <c r="C200" s="1">
+        <f>5.416/1000000</f>
+        <v>5.4160000000000003E-6</v>
+      </c>
+      <c r="D200" s="1">
+        <f t="shared" si="48"/>
+        <v>8.5944099999999996E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>8.24036E-4</v>
+      </c>
+      <c r="B201" s="1">
+        <f>3.6593/100000</f>
+        <v>3.6593E-5</v>
+      </c>
+      <c r="C201" s="1">
+        <f>5.289/1000000</f>
+        <v>5.2889999999999997E-6</v>
+      </c>
+      <c r="D201" s="1">
+        <f t="shared" si="48"/>
+        <v>8.6591800000000003E-4</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0.33799200000000001</v>
+      </c>
+      <c r="G201" s="1">
+        <v>0.33973199999999998</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0.34245300000000001</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0.335594</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0.34267700000000001</v>
+      </c>
+      <c r="K201" s="1">
+        <f>AVERAGE(F201:J201)</f>
+        <v>0.33968959999999998</v>
+      </c>
+      <c r="L201" s="1">
+        <f>K201/24947</f>
+        <v>1.3616450875856815E-5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <f t="shared" ref="A202:C202" si="49">AVERAGE(A197:A201)</f>
+        <v>8.1216779999999998E-4</v>
+      </c>
+      <c r="B202" s="1">
+        <f t="shared" si="49"/>
+        <v>2.8038199999999999E-5</v>
+      </c>
+      <c r="C202" s="1">
+        <f t="shared" si="49"/>
+        <v>5.3763999999999999E-6</v>
+      </c>
+      <c r="D202" s="1">
+        <f t="shared" ref="D202" si="50">AVERAGE(D197:D201)</f>
+        <v>8.4558240000000002E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E208" s="1">
+        <f>24947+1313</f>
+        <v>26260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E209" s="1">
+        <f>24947+247</f>
+        <v>25194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E210" s="1">
+        <f>24947+13+247</f>
+        <v>25207</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B211" s="1">
+        <f>A212/13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <f>A213/101</f>
+        <v>13</v>
+      </c>
+      <c r="B212" s="1">
+        <f>B213/13</f>
+        <v>19</v>
+      </c>
+      <c r="C212" s="1">
+        <f>C213/19</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <f>B214/19</f>
+        <v>1313</v>
+      </c>
+      <c r="B213" s="1">
+        <f>B214/101</f>
+        <v>247</v>
+      </c>
+      <c r="C213" s="1">
+        <f>B214/13</f>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B214" s="1">
+        <f>24947</f>
+        <v>24947</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="6">
+        <v>9.3461299999999995E-8</v>
+      </c>
+      <c r="C217" s="7">
+        <v>4.7091899999999995E-10</v>
+      </c>
+      <c r="D217" s="7">
+        <v>7.3799999999999999E-8</v>
+      </c>
+      <c r="E217" s="2">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="G217" s="1">
+        <v>136</v>
+      </c>
+      <c r="H217" s="1">
+        <v>2664070</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="7">
+        <v>0</v>
+      </c>
+      <c r="C218" s="7">
+        <v>1.7E-14</v>
+      </c>
+      <c r="D218" s="7">
+        <v>1.3616500000000001E-5</v>
+      </c>
+      <c r="E218" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>1919</v>
+      </c>
+      <c r="B221" s="3">
+        <v>24947</v>
+      </c>
+      <c r="D221" s="3">
+        <v>1919</v>
+      </c>
+      <c r="E221" s="8">
+        <f>-(($K$222 - K223) * $B$217 + $C$217 * B221 * $G$217 + $C$217 * B229 * $G$217 + $D$217 * B221 / $G$221 + $E$217)</f>
+        <v>-0.23472574190875936</v>
+      </c>
+      <c r="G221" s="1">
+        <v>2</v>
+      </c>
+      <c r="H221" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
+        <v>1313</v>
+      </c>
+      <c r="B222" s="5">
+        <v>24947</v>
+      </c>
+      <c r="D222" s="5">
+        <v>1313</v>
+      </c>
+      <c r="E222" s="8">
+        <f t="shared" ref="E222:E227" si="51">-(($K$222 - K224) * $B$217 + $C$217 * B222 * $G$217 + $C$217 * B230 * $G$217 + $D$217 * B222 / $G$221 + $E$217)</f>
+        <v>-0.2407352086765768</v>
+      </c>
+      <c r="J222" s="1">
+        <v>24947</v>
+      </c>
+      <c r="K222" s="1">
+        <v>2664070</v>
+      </c>
+      <c r="L222" s="1">
+        <f>2664070/24947</f>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
+        <v>247</v>
+      </c>
+      <c r="B223" s="5">
+        <v>24947</v>
+      </c>
+      <c r="D223" s="5">
+        <v>247</v>
+      </c>
+      <c r="E223" s="8">
+        <f t="shared" si="51"/>
+        <v>-0.2513063168853118</v>
+      </c>
+      <c r="J223" s="3">
+        <v>1919</v>
+      </c>
+      <c r="K223" s="1">
+        <f>J223*L223</f>
+        <v>204928.46153846153</v>
+      </c>
+      <c r="L223" s="1">
+        <f t="shared" ref="L223:L229" si="52">2664070/24947</f>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
+        <v>101</v>
+      </c>
+      <c r="B224" s="5">
+        <v>26260</v>
+      </c>
+      <c r="D224" s="5">
+        <v>101</v>
+      </c>
+      <c r="E224" s="8">
+        <f t="shared" si="51"/>
+        <v>-0.25297077404019569</v>
+      </c>
+      <c r="J224" s="5">
+        <v>1313</v>
+      </c>
+      <c r="K224" s="1">
+        <f t="shared" ref="K224:K229" si="53">J224*L224</f>
+        <v>140214.21052631579</v>
+      </c>
+      <c r="L224" s="1">
+        <f t="shared" si="52"/>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="5">
+        <v>19</v>
+      </c>
+      <c r="B225" s="5">
+        <v>25194</v>
+      </c>
+      <c r="D225" s="5">
+        <v>19</v>
+      </c>
+      <c r="E225" s="8">
+        <f t="shared" si="51"/>
+        <v>-0.2536080569042104</v>
+      </c>
+      <c r="J225" s="5">
+        <v>247</v>
+      </c>
+      <c r="K225" s="1">
+        <f t="shared" si="53"/>
+        <v>26376.930693069309</v>
+      </c>
+      <c r="L225" s="1">
+        <f t="shared" si="52"/>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="5">
+        <v>13</v>
+      </c>
+      <c r="B226" s="5">
+        <v>25194</v>
+      </c>
+      <c r="D226" s="5">
+        <v>13</v>
+      </c>
+      <c r="E226" s="8">
+        <f t="shared" si="51"/>
+        <v>-0.25366755657517887</v>
+      </c>
+      <c r="J226" s="5">
+        <v>101</v>
+      </c>
+      <c r="K226" s="1">
+        <f t="shared" si="53"/>
+        <v>10785.708502024292</v>
+      </c>
+      <c r="L226" s="1">
+        <f t="shared" si="52"/>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="5">
+        <v>1</v>
+      </c>
+      <c r="B227" s="5">
+        <v>25207</v>
+      </c>
+      <c r="D227" s="5">
+        <v>1</v>
+      </c>
+      <c r="E227" s="8">
+        <f t="shared" si="51"/>
+        <v>-0.25378870078669991</v>
+      </c>
+      <c r="J227" s="5">
+        <v>19</v>
+      </c>
+      <c r="K227" s="1">
+        <f t="shared" si="53"/>
+        <v>2028.9946686976391</v>
+      </c>
+      <c r="L227" s="1">
+        <f t="shared" si="52"/>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="8"/>
+      <c r="J228" s="5">
+        <v>13</v>
+      </c>
+      <c r="K228" s="1">
+        <f t="shared" si="53"/>
+        <v>1388.2595101615425</v>
+      </c>
+      <c r="L228" s="1">
+        <f t="shared" si="52"/>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>1919</v>
+      </c>
+      <c r="B229" s="3">
+        <v>1919</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1919</v>
+      </c>
+      <c r="E229" s="8">
+        <f>-(($K$222 - K223) * $B$218 + $C$218 * B221 * $G$217 + $C$218 * B229 * $G$217 + $D$218 * B221 / $H$221 + $E$218)</f>
+        <v>-0.21623073870794202</v>
+      </c>
+      <c r="J229" s="5">
+        <v>1</v>
+      </c>
+      <c r="K229" s="1">
+        <f t="shared" si="53"/>
+        <v>106.78919308934942</v>
+      </c>
+      <c r="L229" s="1">
+        <f t="shared" si="52"/>
+        <v>106.78919308934942</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="5">
+        <v>1313</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1313</v>
+      </c>
+      <c r="D230" s="5">
+        <v>1313</v>
+      </c>
+      <c r="E230" s="8">
+        <f t="shared" ref="E230:E235" si="54">-(($K$222 - K224) * $B$218 + $C$218 * B222 * $G$217 + $C$218 * B230 * $G$217 + $D$218 * B222 / $H$221 + $E$218)</f>
+        <v>-0.21623073730687001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="5">
+        <v>247</v>
+      </c>
+      <c r="B231" s="5">
+        <v>247</v>
+      </c>
+      <c r="D231" s="5">
+        <v>247</v>
+      </c>
+      <c r="E231" s="8">
+        <f>-(($K$222 - K225) * $B$218 + $C$218 * B223 * $G$217 + $C$218 * B231 * $G$217 + $D$218 * B223 / $H$221 + $E$218)</f>
+        <v>-0.21623073484227801</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="5">
+        <v>101</v>
+      </c>
+      <c r="B232" s="5">
+        <v>1414</v>
+      </c>
+      <c r="D232" s="5">
+        <v>101</v>
+      </c>
+      <c r="E232" s="8">
+        <f>-(($K$222 - K226) * $B$218 + $C$218 * B224 * $G$217 + $C$218 * B232 * $G$217 + $D$218 * B224 / $H$221 + $E$218)</f>
+        <v>-0.21734814460728802</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="5">
+        <v>19</v>
+      </c>
+      <c r="B233" s="5">
+        <v>266</v>
+      </c>
+      <c r="D233" s="5">
+        <v>19</v>
+      </c>
+      <c r="E233" s="8">
+        <f t="shared" si="54"/>
+        <v>-0.21644094017602</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="5">
+        <v>13</v>
+      </c>
+      <c r="B234" s="5">
+        <v>260</v>
+      </c>
+      <c r="D234" s="5">
+        <v>13</v>
+      </c>
+      <c r="E234" s="8">
+        <f t="shared" si="54"/>
+        <v>-0.21644094016214802</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="5">
+        <v>1</v>
+      </c>
+      <c r="B235" s="5">
+        <v>261</v>
+      </c>
+      <c r="D235" s="5">
+        <v>1</v>
+      </c>
+      <c r="E235" s="8">
+        <f t="shared" si="54"/>
+        <v>-0.216452003600766</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="9"/>
+      <c r="B236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="8"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="1">
+        <v>24947</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1">
+        <v>13</v>
+      </c>
+      <c r="D240" s="1">
+        <v>19</v>
+      </c>
+      <c r="E240" s="1">
+        <v>101</v>
+      </c>
+      <c r="F240" s="1">
+        <v>247</v>
+      </c>
+      <c r="G240" s="1">
+        <v>1313</v>
+      </c>
+      <c r="H240" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
+      <c r="I241" s="1">
+        <f>SUM(B241:H241)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>13</v>
+      </c>
+      <c r="B242" s="8">
+        <f>B239 - E226</f>
+        <v>0.25366755657517887</v>
+      </c>
+      <c r="I242" s="1">
+        <f t="shared" ref="I242:I247" si="55">SUM(B242:H242)</f>
+        <v>0.25366755657517887</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>19</v>
+      </c>
+      <c r="B243" s="8">
+        <f>B239 - E225</f>
+        <v>0.2536080569042104</v>
+      </c>
+      <c r="I243" s="1">
+        <f t="shared" si="55"/>
+        <v>0.2536080569042104</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>101</v>
+      </c>
+      <c r="B244" s="8">
+        <f>B239-E224</f>
+        <v>0.25297077404019569</v>
+      </c>
+      <c r="I244" s="1">
+        <f t="shared" si="55"/>
+        <v>0.25297077404019569</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>247</v>
+      </c>
+      <c r="B245" s="8">
+        <f>B239-E223</f>
+        <v>0.2513063168853118</v>
+      </c>
+      <c r="C245" s="8">
+        <f>B239-E223</f>
+        <v>0.2513063168853118</v>
+      </c>
+      <c r="D245" s="8">
+        <f>B239 - E223</f>
+        <v>0.2513063168853118</v>
+      </c>
+      <c r="I245" s="1">
+        <f t="shared" si="55"/>
+        <v>0.75391895065593539</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B246" s="8">
+        <f>B239-E222</f>
+        <v>0.2407352086765768</v>
+      </c>
+      <c r="C246" s="8">
+        <f>B239-E222</f>
+        <v>0.2407352086765768</v>
+      </c>
+      <c r="E246" s="8">
+        <f>B239 - E222</f>
+        <v>0.2407352086765768</v>
+      </c>
+      <c r="I246" s="1">
+        <f t="shared" si="55"/>
+        <v>0.72220562602973037</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B247" s="8">
+        <f>B239-E221</f>
+        <v>0.23472574190875936</v>
+      </c>
+      <c r="D247" s="8">
+        <f>B239 - E221</f>
+        <v>0.23472574190875936</v>
+      </c>
+      <c r="E247" s="8">
+        <f>B239-E221</f>
+        <v>0.23472574190875936</v>
+      </c>
+      <c r="I247" s="1">
+        <f t="shared" si="55"/>
+        <v>0.70417722572627806</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="1">
+        <v>24947</v>
+      </c>
+      <c r="C248" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B249" s="1">
+        <f>B239</f>
+        <v>0</v>
+      </c>
+      <c r="C249" s="8">
+        <f>E223</f>
+        <v>-0.2513063168853118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1">
+        <v>13</v>
+      </c>
+      <c r="D250" s="1">
+        <v>19</v>
+      </c>
+      <c r="E250" s="1">
+        <v>101</v>
+      </c>
+      <c r="F250" s="1">
+        <v>247</v>
+      </c>
+      <c r="G250" s="1">
+        <v>1313</v>
+      </c>
+      <c r="H250" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>1</v>
+      </c>
+      <c r="I251" s="1">
+        <f>SUM(B251:H251)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>13</v>
+      </c>
+      <c r="B252" s="8">
+        <f>C249 - E226</f>
+        <v>2.3612396898670673E-3</v>
+      </c>
+      <c r="I252" s="1">
+        <f t="shared" ref="I252:I257" si="56">SUM(B252:H252)</f>
+        <v>2.3612396898670673E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>19</v>
+      </c>
+      <c r="B253" s="8">
+        <f>C249 - E225</f>
+        <v>2.3017400188986015E-3</v>
+      </c>
+      <c r="I253" s="1">
+        <f t="shared" si="56"/>
+        <v>2.3017400188986015E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>101</v>
+      </c>
+      <c r="B254" s="8">
+        <f>B249-E224</f>
+        <v>0.25297077404019569</v>
+      </c>
+      <c r="I254" s="1">
+        <f t="shared" si="56"/>
+        <v>0.25297077404019569</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>247</v>
+      </c>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="1">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B256" s="8">
+        <f>B249-E222</f>
+        <v>0.2407352086765768</v>
+      </c>
+      <c r="C256" s="8">
+        <f>B249-E222</f>
+        <v>0.2407352086765768</v>
+      </c>
+      <c r="E256" s="8">
+        <f>B249-E222</f>
+        <v>0.2407352086765768</v>
+      </c>
+      <c r="I256" s="1">
+        <f t="shared" si="56"/>
+        <v>0.72220562602973037</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B257" s="8">
+        <f>B249-E221</f>
+        <v>0.23472574190875936</v>
+      </c>
+      <c r="D257" s="8">
+        <f>B249-E221</f>
+        <v>0.23472574190875936</v>
+      </c>
+      <c r="E257" s="8">
+        <f>B249-E221</f>
+        <v>0.23472574190875936</v>
+      </c>
+      <c r="I257" s="1">
+        <f t="shared" si="56"/>
+        <v>0.70417722572627806</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="1">
+        <v>24947</v>
+      </c>
+      <c r="C259" s="1">
+        <v>247</v>
+      </c>
+      <c r="D259" s="1">
+        <v>1313</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B260" s="1">
+        <f>B249</f>
+        <v>0</v>
+      </c>
+      <c r="C260" s="8">
+        <f>E234</f>
+        <v>-0.21644094016214802</v>
+      </c>
+      <c r="D260" s="8">
+        <f>E222</f>
+        <v>-0.2407352086765768</v>
+      </c>
+      <c r="E260" s="8">
+        <f>E221</f>
+        <v>-0.23472574190875936</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1">
+        <v>13</v>
+      </c>
+      <c r="D261" s="1">
+        <v>19</v>
+      </c>
+      <c r="E261" s="1">
+        <v>101</v>
+      </c>
+      <c r="F261" s="1">
+        <v>247</v>
+      </c>
+      <c r="G261" s="1">
+        <v>1313</v>
+      </c>
+      <c r="H261" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>1</v>
+      </c>
+      <c r="I262" s="1">
+        <f>SUM(B262:H262)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>13</v>
+      </c>
+      <c r="B263" s="8">
+        <f>C260-E226</f>
+        <v>3.722661641303085E-2</v>
+      </c>
+      <c r="I263" s="1">
+        <f t="shared" ref="I263:I268" si="57">SUM(B263:H263)</f>
+        <v>3.722661641303085E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>19</v>
+      </c>
+      <c r="B264" s="8">
+        <f>C260-E225</f>
+        <v>3.7167116742062384E-2</v>
+      </c>
+      <c r="I264" s="1">
+        <f t="shared" si="57"/>
+        <v>3.7167116742062384E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>101</v>
+      </c>
+      <c r="B265" s="8">
+        <f>D260-E224</f>
+        <v>1.2235565363618889E-2</v>
+      </c>
+      <c r="I265" s="1">
+        <f t="shared" si="57"/>
+        <v>1.2235565363618889E-2</v>
+      </c>
+      <c r="J265" s="13"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>247</v>
+      </c>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="12"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B268" s="12"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" s="1">
+        <v>24947</v>
+      </c>
+      <c r="C271" s="1">
+        <v>247</v>
+      </c>
+      <c r="D271" s="1">
+        <v>1313</v>
+      </c>
+      <c r="E271" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+      <c r="C272" s="8">
+        <f>E231</f>
+        <v>-0.21623073484227801</v>
+      </c>
+      <c r="D272" s="8">
+        <f>E230</f>
+        <v>-0.21623073730687001</v>
+      </c>
+      <c r="E272" s="8">
+        <f>E229</f>
+        <v>-0.21623073870794202</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1">
+        <v>13</v>
+      </c>
+      <c r="D273" s="1">
+        <v>19</v>
+      </c>
+      <c r="E273" s="1">
+        <v>101</v>
+      </c>
+      <c r="F273" s="1">
+        <v>247</v>
+      </c>
+      <c r="G273" s="1">
+        <v>1313</v>
+      </c>
+      <c r="H273" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>1</v>
+      </c>
+      <c r="I274" s="1">
+        <f>SUM(B274:H274)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>13</v>
+      </c>
+      <c r="B275" s="8">
+        <f>C272-E234</f>
+        <v>2.1020531987001045E-4</v>
+      </c>
+      <c r="I275" s="1">
+        <f t="shared" ref="I275:I280" si="58">SUM(B275:H275)</f>
+        <v>2.1020531987001045E-4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>19</v>
+      </c>
+      <c r="B276" s="8">
+        <f>C272-E233</f>
+        <v>2.1020533374199735E-4</v>
+      </c>
+      <c r="I276" s="1">
+        <f t="shared" si="58"/>
+        <v>2.1020533374199735E-4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>101</v>
+      </c>
+      <c r="B277" s="8">
+        <f>D272-E232</f>
+        <v>1.1174073004180107E-3</v>
+      </c>
+      <c r="I277" s="1">
+        <f t="shared" si="58"/>
+        <v>1.1174073004180107E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>247</v>
+      </c>
+      <c r="B278" s="10"/>
+      <c r="C278" s="10"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="13"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="13"/>
+      <c r="G279" s="13"/>
+      <c r="H279" s="13"/>
+      <c r="I279" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B280" s="12"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+      <c r="F280" s="13"/>
+      <c r="G280" s="13"/>
+      <c r="H280" s="13"/>
+      <c r="I280" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="1">
+        <v>24947</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" s="1">
+        <v>24947</v>
+      </c>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1">
+        <v>13</v>
+      </c>
+      <c r="D285" s="1">
+        <v>19</v>
+      </c>
+      <c r="E285" s="1">
+        <v>101</v>
+      </c>
+      <c r="F285" s="1">
+        <v>247</v>
+      </c>
+      <c r="G285" s="1">
+        <v>1313</v>
+      </c>
+      <c r="H285" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="I286" s="1">
+        <f>SUM(B286:H286)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>13</v>
+      </c>
+      <c r="B287" s="8">
+        <f>$B$284-$A287</f>
+        <v>24934</v>
+      </c>
+      <c r="I287" s="1">
+        <f t="shared" ref="I287:I292" si="59">SUM(B287:H287)</f>
+        <v>24934</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>19</v>
+      </c>
+      <c r="B288" s="8">
+        <f t="shared" ref="B288:E292" si="60">$B$284-$A288</f>
+        <v>24928</v>
+      </c>
+      <c r="I288" s="1">
+        <f t="shared" si="59"/>
+        <v>24928</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>101</v>
+      </c>
+      <c r="B289" s="8">
+        <f t="shared" si="60"/>
+        <v>24846</v>
+      </c>
+      <c r="I289" s="1">
+        <f t="shared" si="59"/>
+        <v>24846</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>247</v>
+      </c>
+      <c r="B290" s="8">
+        <f t="shared" si="60"/>
+        <v>24700</v>
+      </c>
+      <c r="C290" s="8">
+        <f>$B$284-$A290</f>
+        <v>24700</v>
+      </c>
+      <c r="D290" s="8">
+        <f>$B$284-$A290</f>
+        <v>24700</v>
+      </c>
+      <c r="E290" s="15"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="15"/>
+      <c r="H290" s="15"/>
+      <c r="I290" s="16">
+        <f t="shared" si="59"/>
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>1313</v>
+      </c>
+      <c r="B291" s="8">
+        <f t="shared" si="60"/>
+        <v>23634</v>
+      </c>
+      <c r="C291" s="8">
+        <f t="shared" si="60"/>
+        <v>23634</v>
+      </c>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8">
+        <f t="shared" si="60"/>
+        <v>23634</v>
+      </c>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="1">
+        <f t="shared" si="59"/>
+        <v>70902</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B292" s="8">
+        <f t="shared" si="60"/>
+        <v>23028</v>
+      </c>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8">
+        <f t="shared" si="60"/>
+        <v>23028</v>
+      </c>
+      <c r="E292" s="8">
+        <f t="shared" si="60"/>
+        <v>23028</v>
+      </c>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="1">
+        <f t="shared" si="59"/>
+        <v>69084</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+    </row>
+    <row r="297" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="298" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="17">
+        <v>0.28979899999999997</v>
+      </c>
+      <c r="C298" s="18">
+        <v>0.90113200000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B299" s="8"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B300" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B301" s="8"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B302" s="8">
+        <v>8.1503999999999995E-4</v>
+      </c>
+      <c r="C302" s="8">
+        <v>8.7807E-4</v>
+      </c>
+      <c r="D302" s="8"/>
+      <c r="E302" s="15"/>
+      <c r="F302" s="15"/>
+      <c r="G302" s="15"/>
+      <c r="H302" s="15"/>
+      <c r="I302" s="16"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B303" s="8"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B304" s="8"/>
+      <c r="C304" s="8"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
